--- a/data/trans_dic/P1404-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1404-Habitat-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.1517155091120759</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1727399937489459</v>
+        <v>0.172739993748946</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.08327004563652614</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05041821887374089</v>
+        <v>0.05157360869570161</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1046396618795035</v>
+        <v>0.1051797318973755</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1007192302446472</v>
+        <v>0.1010796962477873</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.125580056407773</v>
+        <v>0.1262931923723764</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.0797609866180428</v>
+        <v>0.0796399935853099</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1233534541015227</v>
+        <v>0.1246505598704483</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1250961879720703</v>
+        <v>0.1247101710900708</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1541853110042035</v>
+        <v>0.15319580281651</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.07049785867140947</v>
+        <v>0.06874862317445675</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1236035633054452</v>
+        <v>0.124598299581749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1199237909078012</v>
+        <v>0.1196289530578929</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.146667818547304</v>
+        <v>0.1460067981769894</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.08936243198909284</v>
+        <v>0.08749137934603858</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1584179907906803</v>
+        <v>0.1556789984436665</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1508383253961503</v>
+        <v>0.1510876858351449</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1763326564109452</v>
+        <v>0.1746141024494847</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1261752691296155</v>
+        <v>0.1253169721792138</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1792164393853377</v>
+        <v>0.1775180030059111</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1844896140857851</v>
+        <v>0.1832725390167603</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1960954651103394</v>
+        <v>0.1936972994250611</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0984253676347585</v>
+        <v>0.09914574698145628</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1611765759564075</v>
+        <v>0.1635703643926553</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1582018416092916</v>
+        <v>0.1571562125095624</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1778451949301777</v>
+        <v>0.1774964625529653</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1199330189410957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.1388308797551697</v>
+        <v>0.1388308797551696</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.1141557456587428</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07091220333887567</v>
+        <v>0.07211848859188374</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09274832081874976</v>
+        <v>0.09354134598023636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09942694438344492</v>
+        <v>0.100618661161266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1174231572751197</v>
+        <v>0.1189682975031294</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.09389939414608517</v>
+        <v>0.09430908334213152</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1183005952381959</v>
+        <v>0.1187420567435531</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1244766985449509</v>
+        <v>0.1242906711044446</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1392738422245121</v>
+        <v>0.138724355831691</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.08816590111795256</v>
+        <v>0.08881862791564032</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1138944814557688</v>
+        <v>0.112117571898123</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1183524363354136</v>
+        <v>0.1172295172672022</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.134744242044504</v>
+        <v>0.1341798258819877</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1099854258604992</v>
+        <v>0.1084689728032373</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1357772432105858</v>
+        <v>0.1350463796082992</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1404933378321813</v>
+        <v>0.1405524402213514</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1601264117431277</v>
+        <v>0.1609537562906771</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1380736721446832</v>
+        <v>0.1377013977429674</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1615031070255035</v>
+        <v>0.1643314681210838</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1709325507927183</v>
+        <v>0.1694567794887881</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1722460436034715</v>
+        <v>0.1735950012174802</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1159215899660027</v>
+        <v>0.1169139228457352</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1430640457551237</v>
+        <v>0.143169742039889</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1495436721139548</v>
+        <v>0.1505682373392583</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1613711129579103</v>
+        <v>0.1615578194954402</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05488503229901118</v>
+        <v>0.05718702619434148</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07758464708792556</v>
+        <v>0.07882092822815723</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1000924939010461</v>
+        <v>0.09895076751609326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1293121361399444</v>
+        <v>0.1297475202713621</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08788549758053507</v>
+        <v>0.08715203467381887</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1026587369223194</v>
+        <v>0.1049118842009765</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.09139563508814315</v>
+        <v>0.08891483075476851</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1167034463000861</v>
+        <v>0.1142682204365431</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07781579975133583</v>
+        <v>0.07676714512809184</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.09795096103472588</v>
+        <v>0.09844944973705891</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1032852862829385</v>
+        <v>0.1022556163067435</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1277330604879053</v>
+        <v>0.126817989845933</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09641103115544936</v>
+        <v>0.1001223329227652</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1281911674816161</v>
+        <v>0.1272374798711315</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1485184359312881</v>
+        <v>0.1499191139295984</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1806779753840375</v>
+        <v>0.1833590773958321</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1355165154222033</v>
+        <v>0.1352135654113747</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1537597398717829</v>
+        <v>0.155103767610965</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1382627715273498</v>
+        <v>0.1371074866720211</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1573450590763999</v>
+        <v>0.1545608942325289</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1082609977475798</v>
+        <v>0.1072035422807126</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1336178983942161</v>
+        <v>0.133821974331893</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1381073056574521</v>
+        <v>0.1373211889608117</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1602281466638577</v>
+        <v>0.1589866589354218</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.09343434134047343</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1371111553587153</v>
+        <v>0.1371111553587154</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.09125275122513288</v>
@@ -1105,7 +1105,7 @@
         <v>0.1079608359472242</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1584516676940848</v>
+        <v>0.1584516676940847</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06533076692658125</v>
+        <v>0.06568010637209161</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09257158723112911</v>
+        <v>0.09291222101289059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07512042751655824</v>
+        <v>0.07633657270839313</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1175371864801844</v>
+        <v>0.1172310052997056</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07313895437233844</v>
+        <v>0.07359914158156115</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1147254801899594</v>
+        <v>0.1135584522664775</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1013182213577058</v>
+        <v>0.1001095869130097</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.158717878509323</v>
+        <v>0.1607767886464847</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07535196191319955</v>
+        <v>0.07480577856568849</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1092923118457188</v>
+        <v>0.1098147937176182</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.09330946122865212</v>
+        <v>0.09455435353881211</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1458878459704576</v>
+        <v>0.1449346209488808</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1000618814476006</v>
+        <v>0.09897942166691438</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1357523356565626</v>
+        <v>0.1360616580936846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1122721247497141</v>
+        <v>0.1159712880257927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1581742752894614</v>
+        <v>0.1582408479996425</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1100507062761073</v>
+        <v>0.1122935775955879</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1579093746834718</v>
+        <v>0.1580914194812687</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1454874477938647</v>
+        <v>0.1452771921444967</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1962615414778944</v>
+        <v>0.1967566237329607</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0995871780552266</v>
+        <v>0.09971603733046139</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.1391534161427639</v>
+        <v>0.1390493206880605</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.122120724832929</v>
+        <v>0.1244493481530919</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1728297750114826</v>
+        <v>0.1726230673345028</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1145427989490394</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1437564016181793</v>
+        <v>0.1437564016181794</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1030366913449996</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07060155006710656</v>
+        <v>0.0703215665348931</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1022162136139512</v>
+        <v>0.1009853672908541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1042952244932123</v>
+        <v>0.1037499509895467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.133298603685528</v>
+        <v>0.1330701104470726</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.09434520588601045</v>
+        <v>0.09262512494237973</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1261581695710918</v>
+        <v>0.1259953971791458</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1198751428609108</v>
+        <v>0.1200789074993194</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1513843271827037</v>
+        <v>0.1509620813084449</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08438834873613438</v>
+        <v>0.0839494883795797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1180323804693487</v>
+        <v>0.1178892608414724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.115997860905444</v>
+        <v>0.1161731739916131</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1446196008605768</v>
+        <v>0.1452817143800274</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.08872081548127093</v>
+        <v>0.08862195580850631</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1244125020809493</v>
+        <v>0.1250561437335867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1258309598218785</v>
+        <v>0.1265692479158909</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1553100516324988</v>
+        <v>0.1552271811126218</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1145409934477128</v>
+        <v>0.1148835484861753</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1501855654183326</v>
+        <v>0.150469353745182</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1440244981741692</v>
+        <v>0.144835958759313</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1695020821135091</v>
+        <v>0.1700516201816058</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09883244104123255</v>
+        <v>0.09812422392078991</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1341844448591491</v>
+        <v>0.1345302423381009</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1318295483419056</v>
+        <v>0.13103600363399</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1597229421799662</v>
+        <v>0.160008040615473</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>34991</v>
+        <v>35793</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>73611</v>
+        <v>73991</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>67965</v>
+        <v>68209</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>86669</v>
+        <v>87161</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>54904</v>
+        <v>54820</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>85984</v>
+        <v>86888</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>84170</v>
+        <v>83910</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>112880</v>
+        <v>112155</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97454</v>
+        <v>95036</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>173109</v>
+        <v>174502</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>161614</v>
+        <v>161217</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>208599</v>
+        <v>207659</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62019</v>
+        <v>60720</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>111442</v>
+        <v>109515</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>101786</v>
+        <v>101954</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>121696</v>
+        <v>120510</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>86853</v>
+        <v>86262</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>124923</v>
+        <v>123739</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>124132</v>
+        <v>123313</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>143562</v>
+        <v>141806</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>136060</v>
+        <v>137055</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>225731</v>
+        <v>229083</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>213199</v>
+        <v>211790</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>252941</v>
+        <v>252445</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>68203</v>
+        <v>69364</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>94413</v>
+        <v>95220</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>101657</v>
+        <v>102876</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>122885</v>
+        <v>124502</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>90932</v>
+        <v>91328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>121728</v>
+        <v>122182</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>129818</v>
+        <v>129624</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>148723</v>
+        <v>148137</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>170177</v>
+        <v>171437</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>233133</v>
+        <v>229496</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>244438</v>
+        <v>242119</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>284898</v>
+        <v>283705</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>105784</v>
+        <v>104325</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>138214</v>
+        <v>137470</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>143645</v>
+        <v>143705</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>167575</v>
+        <v>168440</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>133710</v>
+        <v>133349</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>166182</v>
+        <v>169093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>178268</v>
+        <v>176729</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>183933</v>
+        <v>185373</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>223751</v>
+        <v>225666</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>292841</v>
+        <v>293057</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>308859</v>
+        <v>310975</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>341197</v>
+        <v>341592</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>37240</v>
+        <v>38802</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>58671</v>
+        <v>59606</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>76025</v>
+        <v>75158</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>103209</v>
+        <v>103557</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>60100</v>
+        <v>59598</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>79784</v>
+        <v>81535</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>71747</v>
+        <v>69799</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>94480</v>
+        <v>92509</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>106012</v>
+        <v>104584</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>150197</v>
+        <v>150961</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>159531</v>
+        <v>157940</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>205358</v>
+        <v>203887</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>65416</v>
+        <v>67934</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>96940</v>
+        <v>96219</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>112807</v>
+        <v>113871</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>144206</v>
+        <v>146346</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>92672</v>
+        <v>92465</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>119498</v>
+        <v>120543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>108538</v>
+        <v>107631</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>127382</v>
+        <v>125128</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>147489</v>
+        <v>146049</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>204888</v>
+        <v>205201</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>213315</v>
+        <v>212101</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>257601</v>
+        <v>255605</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>61556</v>
+        <v>61885</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>87734</v>
+        <v>88057</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70430</v>
+        <v>71571</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>116274</v>
+        <v>115971</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>75963</v>
+        <v>76441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>120680</v>
+        <v>119452</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>105754</v>
+        <v>104492</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>177218</v>
+        <v>179517</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>149260</v>
+        <v>148178</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>218545</v>
+        <v>219590</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>184878</v>
+        <v>187345</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>307212</v>
+        <v>305205</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>94281</v>
+        <v>93261</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>128658</v>
+        <v>128951</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>105263</v>
+        <v>108731</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>156474</v>
+        <v>156540</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>114300</v>
+        <v>116629</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>166105</v>
+        <v>166297</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>151857</v>
+        <v>151637</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>219137</v>
+        <v>219690</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>197266</v>
+        <v>197521</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>278257</v>
+        <v>278049</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>241963</v>
+        <v>246577</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>363947</v>
+        <v>363511</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>231329</v>
+        <v>230412</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>350128</v>
+        <v>345912</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>354014</v>
+        <v>352164</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>469752</v>
+        <v>468947</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>318811</v>
+        <v>312999</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>448505</v>
+        <v>447926</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>424902</v>
+        <v>425625</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>564071</v>
+        <v>562497</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>561667</v>
+        <v>558746</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>823921</v>
+        <v>822922</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>804897</v>
+        <v>806113</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1048512</v>
+        <v>1053313</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>290698</v>
+        <v>290374</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>426159</v>
+        <v>428364</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>427114</v>
+        <v>429620</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>547321</v>
+        <v>547029</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>387057</v>
+        <v>388214</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>533924</v>
+        <v>534933</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>510501</v>
+        <v>513377</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>631579</v>
+        <v>633626</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>657803</v>
+        <v>653089</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>936670</v>
+        <v>939084</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>914751</v>
+        <v>909245</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1158014</v>
+        <v>1160081</v>
       </c>
     </row>
     <row r="24">
